--- a/500all/speech_level/speeches_CHRG-114hhrg93898.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93898.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chaffetz. The Committee will come to order. I thank you for being here, appreciate your patience as we have a hearing today on H.R. 707, the ``Restoration of America's Wire Act.'' We appreciate your patience and understanding.    We have critical votes that are on the floor of the House. We will have another set of votes. We do hope to get through opening statements prior to the next set of votes, but we will have to recess again. It is the intention of the Committee to come back into order after this next series of votes.    This is an important issue. It is an important topic. I happen to be the one who had introduced H.R. 707. I know there are various thoughts and perspectives on that.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman, thank you so very much, and thank you for your thoughtfulness in introducing a piece of legislation that will give us the opportunity to review some very important issues.    Let me also thank the Chairman of the Committee, Mr. Sensenbrenner, for calling this very timely hearing.    I want to add my appreciation to all of the witnesses for their patience as we try to do the people's business, and also for your astuteness on this issue, because obviously that is the case that we have called you as witnesses because we want to hear your testimony.    There are 143 million smartphones in operation in America, and at least 75 percent of all U.S. households have computers.    Again, I want to acknowledge, as I see both the Ranking and the Chairman in the Committee of the full Committee. Let me acknowledge our Ranking Member, Mr. Conyers, who is here, and Mr. Goodlatte, the Chairman of the full Committee, who is here as well.    Each of these Internet-connected devices is a potential slot machine or roulette wheel, and every home in America is potentially a casino. That is why it is critical today that we address important issues concerning Internet gaming, including not only statutory interpretation but also questions related to law enforcement and the appeal of online gaming to minors.    Traditional offline gaming revenues in the United States total $35 billion annually. As the Internet continues to offer new possibilities for gaming online, it has been estimated that the American market for online casinos in total could be worth as much as $12 billion per year. Gaming is big business, but we must ensure that our laws governing all forms of gaming reflect a careful weighing of the related costs and benefits.    Illegal gambling has long been a source of revenue for organized crime. In 1961, then-Attorney General Robert F. Kennedy's Justice Department worked with the 87th Congress to enact a series of laws targeting organized crime operations. One of these statutes, the Wire Act, was passed to prohibit the use of interstate telephone and telegraph wagering services which processed bets that provided substantial revenues for criminal organizations.    However, the advent of the Internet in the 1990's allowed greater remote interactions with bettors and expanded the types of games that could be played from a distance. These evolving circumstances led to increased focus on the scope of the prohibitions under the Wire Act.    Prior to 2011, the Department of Justice interpreted the Wire Act to prohibit wagering of any kind over interstate telecommunications. In 2011, the Department reexamined the text and legislative history of the statute and developed its current position, that the law was meant only to apply to bets placed on sporting events. Some fear that this change will lead to the proliferation of non-sports Internet gaming and possible related harms to our citizens, which all of us are concerned about.    Others assert that because Americans already spend an estimated $2.6 billion on illegal offshore gambling websites per year, the better course is to encourage them instead to participate in legal, regulated Internet gaming in the states that allow it. So far Delaware, New Jersey and Nevada have amended their laws to allow either poker or casino-style gaming over the Internet, and several other states allow the online sales of lottery tickets.    We must take seriously the concerns that are raised about the expansion of Internet gaming, including worries that it may facilitate money laundering, prey on those who engage in problem gambling, and allow the participation of minors who would not be able to gamble in a casino. And I would add that all of us, no matter what side of the issue you are on, raise that as a concern.    In fact, the Adolescent Psychiatry Journal's review of studies concerning Internet gambling and children concluded that the potential for future problems among youth is high, especially among a generation of young people who have grown up with video games, computers, and the Internet.    We also must consider the arguments of those who assert that online gaming taking place under state regulation would better prevent those harms than unregulated offshore gaming. For instance, in 2011, former FBI Director Louis Freeh stated that these offshore gaming sites are run by shady operators, often outside the effective reach of U.S. law enforcement, an environment rife with opportunity to defraud players and launder money for much more dangerous operations.    There certainly are different perspectives on these questions, and the Committee will examine all of them as we evaluate H.R. 707, a bill which would provide that the Wire Act prohibits non-sports betting as well as betting on sporting events.    I look forward to the hearing, the insights and opinions of our witnesses concerning each of these issues, and I believe that we have gathered individuals with expertise and balance and a contribution that will help us move forward on a question that the underlying premise should be how do we serve the American public.    With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,33 +70,21 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    Internet gambling has been an issue of particular interest to me during my service in Congress. I am personally opposed to Internet gambling because it is used as a mechanism to launder money, because it causes bankruptcy and breaks up families, and because it can even lead to suicide, as it did for a constituent from my district. I have introduced multiple bills dealing with Internet gambling in the past, and I am looking forward to a frank and detailed discussion with our distinguished witnesses, and the Members of this Subcommittee, on the topic.    As the Chairman noted, the OLC opinion reinterpreting the Wire Act caused a dramatic shift in the way the Department of Justice views the laws proscribing Internet gambling. In the three-plus years since the opinion was issued, it has led to an increased push toward the availability of online gambling in this Nation. Many participants in the gambling industry, from Indian tribes to state lottery commissions to casino operators, have been exploring ways to increase their involvement in remote gaming.    In this environment, we must explore ways to protect the rights of states to prevent unwanted Internet gambling from creeping across their borders and into their states. Updating the Wire Act can be a tool to protect states' rights to prohibit gambling activity. However, there is also another states' rights dynamic that we must acknowledge, and that is what to do about states that want to regulate and permit Internet gambling within their own borders. Some states have already legalized online gambling. Thus, any update to the Wire Act will need to address how to handle both the states that have already enacted laws allowing online gambling and any states that would want to do so in the future.    These are tough decisions, and we are having this hearing today to seek answers to these tough decisions.    While I am sympathetic to the argument that states are laboratories of democracy, I am also concerned about whether it is possible to keep this sort of gambling activity from crossing state lines and thus violating the rights of other states.    There is a role for Congress to play in upholding states' rights in this area. Wholly intrastate criminal conduct may nevertheless have an interstate nexus, or be facilitated utilizing an instrumentality of interstate commerce such as a highway, telephone network, or, yes, the Internet. It is therefore within Congress's purview to legislate this conduct. The question for the Members of this Committee, then, is whether Congress should act in this area, and if the approach taken by H.R. 707 is the appropriate way to do so.    I will be interested in our panel's take on that and many other questions. How would a state-by-state regulatory approach to Internet gambling affect the citizens of states who do not want legalized gambling within their borders? In other words, how would you ensure that online gambling, if legal in one state, wouldn't bleed over into a neighboring state where it is not legal, particularly since the Internet doesn't stop at state borders? Is geolocation technology sufficient to determine whether an individual who places a bet is physically present in a state where it is legal? Should all Internet gambling be prohibited? What should be done with states that have already passed laws to permit Internet gambling?    I look forward to discussing all these issues in detail with our witnesses. This is a complex issue and evokes strong opinions on all sides. Should we decide to move forward with legislation to address this issue, we need to do so deliberately and thoughtfully.    I thank the witnesses for their testimony and yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chaffetz. I thank the Chairman.    I will now recognize the Ranking Member of the Judiciary Committee, the former Chairman of the Judiciary Committee, Mr. Conyers, for 5 minutes.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman.    First, I too join in in greeting five witnesses today.    In recent years, I have reviewed the discussion concerning the intended meaning of the Wire Act and have tried to determine the best course for public safety. As a result of legal analysis, I have the following observations which lead me to oppose legislation to amend the Wire Act to prohibit non-state gaming.    Three points. I agree with the position of the Department of Justice based on a 2011 analysis that the Wire Act's prohibitions are limited to sports betting and not to other forms of betting facilitated by wire communications, now including the Internet.    Secondly, while unlawful gaming has long been associated with harms relating to criminal enterprises, banning online gaming is not the answer. That is why the Fraternal Order of Police wrote to myself and Chairman Goodlatte in May of last year in which they said we cannot ban our way out of this problem as this would simply drive online gaming further underground and put more people at risk. Not only does the black market for Internet gaming include no consumer protections, it also operates entirely offshore with unlicensed operators, drastically increasing the threat of identity theft, fraud, and other criminal acts.    And finally, considering the greater risk of harm from offshore gambling, the better option is to allow states, if they choose, to permit online gaming as they see fit, subject to regulation and monitoring, of course.    So that is why the Department of Justice's interpretation of the Wire Act and three states--New Jersey, Nevada, and Delaware--have already permitted online poker or some forms of online casino-style gaming in compliance with the law. Other states, including my own, Michigan, now allow online sales of lottery tickets. States should be allowed to decide this question for themselves, and we should not take any action that would overturn such state laws. But I anxiously await our discussions back and forth today.    I thank the Chairman and yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chaffetz. I thank the gentleman.    I will now recognize myself for 5 minutes.    I obviously am in favor of this bill, having introduced it. I believe it is a states' rights bill, and I think it is important that states have the ability, such as Utah and Hawaii, where we have no gaming, to protect ourselves from something that we would not like to see within our borders.    I personally am opposed to gambling but recognize the right of others and other states, if they so choose, our neighbors, good friends in Nevada if they so choose to have at it. But nevertheless, I do believe that, going back to December 23, 2011, the Wire Act had an interpretation for more than 50 years, and if there is going to be an alteration of such significance to the law, then that should be done through the regular congressional process, not simply a 13-page memo issued by the Office of Legal Counsel within the bowels of the Department of Justice.    Now, there are a number of people on both sides of this issue. It is something that people, as Chairman Goodlatte talked about, are passionate about. I would like to ask unanimous consent to enter into the record 42 different letters that we have received by and large in support of restoring America's Wire Act or are very concerned about the implications of the OLC's opinion.    These include letters from the African American Mayors Association, the Southern Baptist Convention; Senator Mark Warner; the Eagle Forum; the American Family Association; two letters from the Family Research Council; a letter from the Concerned Women for America; a letter from Senator Lindsey Graham, Senator Dianne Feinstein, and Senator Kelly Ayotte; Attorneys General from 16 states that wrote to us that this is a problem; the National Association of Attorneys General. We have letters from Governor Rick Perry, Governor Nikki Haley, Governor Herbert of Utah, Governor Scott, Senator Reid, Senator Kyl, Governor Mike Pence; an op-ed by Governor Rick Perry; another op-ed from Governor Bobby Jindal; another letter from Senator Dianne Feinstein; a USA Today editorial from November 20, 2013; a New York Times editorial from November 25, 2013; a cover story on Newsweek of August 22, 2014; former Representative Spencer Bachus, a Member that was on this Committee; the Department of Justice; and the Federal Bureau of Investigation's Criminal Investigations. There are a host of letters and people who have opined that this is fraught with problems and challenges.*---------------------------------------------------------------------------    *Note: The submitted material is not included in this printed record but is on file with the Subcommittee and can be accessed at:      http://docs.house.gov/Committee/Calendar/      ByEvent.aspx?EventID=103090    But truly, we are here not to hear from the Members of Congress but to hear from our distinguished panel, so let me introduce them briefly. We will swear you in, and then we will start with the testimony from our panel. We do appreciate it. I know some of you have traveled from out of state.</t>
   </si>
   <si>
-    <t>John Kindt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. John Kindt. Did I pronounce that properly?</t>
   </si>
   <si>
-    <t>Kindt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kindt. Yes, sir.</t>
   </si>
   <si>
@@ -115,36 +97,24 @@
     <t xml:space="preserve">    Mr. Chaffetz. Thank you.    Mr. Bernal, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Bernal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bernal. Hello. My name is Les Bernal, and I am the National Director of Stop Predatory Gambling. Our focus is government-sponsored gambling, whether it is casinos, state lotteries, tribal casinos, or the topic of today's hearing, which is Internet gambling.    Government-sponsored gambling is playing a major role in the rising unfairness and inequality in American life, and it is directly impacting the lives of your constituents in your district.    Up until about 10 years ago, for me, government-sponsored gambling was like the paint on the wall. It was just there. I never questioned it. But when you finally stop to look at it, you can't avoid the obvious evidence that this public policy is contributing to the unfairness and inequality in our country, which has been considered one of the defining issues of our time by leaders from across the political spectrum.    Banning the practice of states sponsoring Internet gambling, which the bill before you would do, is part of the foundation of any serious effort toward reversing this rising inequality in our country.    One important job of the Federal Government is to ensure that every state gives every citizen equal protections under the law. Yet, at this moment in history, state governments across the United States are blatantly, blatantly cheating and exploiting their own citizens, infringing on the rights of millions of Americans through the extreme forms of gambling they sponsor and market to our communities. Many of these state-sponsored games, especially electronic gambling machines, are designed mathematically so users are certain to lose their money the longer they play. At the same time, these games are literally designed so citizens can't stop using them. They are exploiting aspects of human psychology and inducing irrational behavior.    Citizens, your constituents, aren't demanding these extreme forms of gambling. No one is pounding the table for this in your district. In partnership with commercial gambling operators, states are forcing these gambling games onto the public. The most recent poll of New Jersey voters found that 57 percent, 57 percent opposed online gambling, and only 32 percent approved. This is after, after their state government began sponsoring online gambling in 2013.    So if not for the Federal Government, who will step in to protect the rights of individuals, your constituents, against these blatantly dishonest practices that are contributing to inequality and being done by an active predatory state?    People are and should remain free to wager money and to play games of chance for money. But while citizens have every right to engage in a financially damaging activity, the government has no business encouraging them to do it.    In most of your congressional districts, 5 percent of your district, 5 percent of your district, about 35,000 of your constituents have been turned upside-down by gambling, most of which was sponsored by state government. This figure does not account for the reality that each of these citizens has at least one or two people close to them whose lives are also upended because of this public policy.    There is no debate that the financial losses of these individuals, these people being harmed by this public policy, they make up the majority of the revenue taken by state-sponsored casinos and lotteries. Millions of men and women and their families have sacrificed and hurt so much to provide these needed revenues to American government. But no one has ever thanked them for their service. There are no parades with fluttering American flags in the breeze, no yellow ribbons. Our country simply renders these people as failures.    Banning state-sponsored Internet gambling also creates more fairness for the two-thirds of your constituents who almost never use government-sponsored gambling. Because of this public policy, they are paying higher taxes for less services. State-sponsored casinos and lotteries have proven to be a failed source of government revenue, and they haven't delivered on their famous promises to fund education, lower taxes, or to pay for needed public services.    The evidence is clear that state-run gambling operations add to rather than ease long-term budget problems for states. Internet gambling sponsored by government will only make it worse. That is why state-sponsored gambling is the symbol of anti-reform politicians across the United States, regardless of party.    ``No taxation without representation'' was one of America's founding principles. After 40 years of state governments using lotteries and casinos to prey on their own citizens, to extract as much money as possible, the time has come to add the principle of ``no taxation by exploitation'' beneath it.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chaffetz. I thank the gentleman.    Mr. Fagan, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Fagan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fagan. We need to update and restore the Wire Act, and particularly to undo the misinterpretation recently given to it by the Department of Justice's Office of Legal Counsel. The need for a legislative fix I prefer to set out in the written testimony submitted to the Subcommittee. It is not greatly different from the language in H.R. 707 and returns the Act to its proper scope, with a few less exceptions and a bit more First Amendment protection.    Also in my written submission is an analysis of how and why the Office of Legal Counsel's December 2011 strained interpretation of the Wire Act to preclude its application to non-sports gambling communications is wrong substantively and was achieved via a closed legislation-by-fiat process neither democratic nor sensible given the change it portends for daily life in the United States.    Indeed, the 50-year understanding that the Wire Act applies to both sports and non-sports wagering interstate communication was the understanding that even the gambling industry had during that largely pre-Internet period, as industry behavior shows. So when the Office of Legal Counsel's 2011 reinterpretation of the Act became public, many wondered whether the opinion was either careless or corrupt.    No matter. For present purposes, as a result, it was wrong both as a matter of law and as a matter of policy. A restored, repaired Wire Act will help states enforce their gambling laws whether the state prohibits or authorizes intrastate gambling activities. This kind of help is just as needed today as in 1961.    Organized crime, both traditional and non-traditional, and now increasingly transnational, has long exploited and continues to exploit the evasive opportunities presented by conducting cross-border gambling operations. By unwisely cutting in half the utility of the Wire Act as a tool in the prosecutor's toolbox, the Office of Legal Counsel opened a window for organized crime and others intent on impoverishing Americans through illicit, commercially operated gambling enterprises, whether via the numbers racket, lotteries, bolita virtual card games, slots, or any of the myriad creative ways con men and sharp operators use non-sports gambling to generate revenue from gangs designed to exploit and even addict.    The money laundering utility of gambling enterprises, long known but hard to investigate in brick-and-mortar settings, becomes all the more difficult to defeat when Internet-based gambling moves funds and obfuscates records at the speed of light. Of even more serious concern, law enforcement and intelligence analysts have seen online gambling sites, sites which by their nature are interstate and international in scope, being used as terrorist financing vehicles, places to clandestinely store and transmit funds.    Terrorism-related convictions in the United Kingdom of Tariq ad Daour and two associates who used Internet gambling to facilitate terrorism conduct and planning a few years ago only hint at the dozens of classified and non-classified investigations that U.S., U.K., and Canadian authorities have made under the exploitation of gambling websites to finance terrorism.    More recently, terrorists in Afghanistan have been using illegal gambling sites to move their money as well, reports Janes Advisory Services. It is no wonder that the Federal Criminal Investigators Association supports legislation to return the Wire Act to its original scope and opposes any carve-out that would weaken its protections and further enable criminal and terrorist activity. Without a restored Wire Act, there is not adequate legal framework for law enforcement to shut down substantial illegal interstate gambling activities.    Relatedly, the present inability to use the Wire Act in cases of non-sports gambling further denies millions of Americans the efficient recourse of sentencing-based restitution when they become victims of fraud or other gambling-based criminal conduct conducted by illegal cross-border enterprises.    Those who dream that it's possible to regulate and tax this supposedly well-monitored interstate system of online gambling are just that, dreamers. I can tell you with the certainty of a person who has been there, done that, that there is no way the Federal Government or any individual or combination of state governments can expand to the degree necessary to effectively police and regulate the scale of Internet gambling, multiple millions of transactions involving billions of lines of code in malleable, disguisable formats with anonymizing and proxy tools readily available with easily disguised traditional and evolving collusive behaviors. For example, Meerkat-type video streaming over Twitter service will always give collusion teams a leg up.    Remote access and control of computers in a jurisdiction where intrastate gambling is allowed will defeat geolocation and geo-fencing, and it is fairly trivial to leverage the Tor network to obfuscate the original IP address of a client, whether it is a laptop, a phone, a tablet, et cetera.    All this means no police force or regulatory body will be big enough, trained enough, or funded enough to keep criminals and terrorists from using institutionalized online interstate gambling to their advantage.    I see my time has run out.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chaffetz. Thank you.    Mr. Moylan, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Moylan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moylan. Thank you, Mr. Chairman and Madam Ranking Member, Members of the Subcommittee, for the invitation to testify today.    My name is Andrew Moylan. I am Executive Director and Senior Fellow of the R Street Institute. We are a pragmatic, non-profit, non-partisan think tank that strives for free markets and limited, effective government, and it is in pursuit of those goals that I testify before you today regarding concerns that we have about H.R. 707, the ``Restoring America's Wire Act,'' and what questions it raises about the appropriate scope of Federal law.    My testimony today is focused not on the propriety of gambling per se, as is some of the other witnesses, but instead on articulating a conception of limited government and Federalism as it relates to gambling legislation. In such a Federalist system, states carry most of the responsibility to exercise powers that are rightfully theirs under the Constitution, and Federal power is appropriately constrained to genuinely national or interstate matters.    So while my conservative and Libertarian brethren hold a wide range of views on the social implications of gambling, we share a broad consensus that the Federal Government is too large and too powerful, in no small part due to a decades-long trend of ever-expanding assertions of power by Congress and a compliant Judiciary that has validated most of those assertions, and it is this troubling trend rather than the activity of gambling itself which motivates my comments today.    Much of my professional work has been devoted to protecting limited government in the Internet age, including matters on which I have previously testified to the Judiciary Committee, like Internet sales tax law.    The Internet is indeed unlimited in its scope, but government power, even in this modern age, ought to be limited and respectful of borders, both the tangible geographic borders that delineate one sovereign state from the next, and the conceptual borders that delineate truly national interstate issues from state and local ones, and it is in that vein that I note potential concerns with the bill before you today.    While ostensibly expanding the 1961 Wire Act such that it covers all forms of gambling, as opposed to just sports betting, and specifying the inclusion of Internet transmission as prohibited, it appears also to go a step further than that; and also in the plain language of the Wire Act itself and the closely related Unlawful Internet Gambling Enforcement Act, or UIGEA. Specifically, its prohibition on all wire or Internet gambling transmissions, including those conducted over the Internet, in states that may have chosen to license and regulate gambling, is at odds with the basic principles of Federalism and the more narrowly targeted language of the original Wire Act and UIGEA.    While there are valid policy-based criticisms of each, both the Wire Act and UIGEA were written to help states in their own law enforcement pursuits and more carefully circumscribed to cover only genuinely international or interstate activity, and they did this by effectively exempting intrastate gambling and transmissions between entities and states where that behavior was legal.    By appearing to extend to wholly intrastate conduct, the Restoring America's Wire Act may well empower the Federal Government in a way that we think is unwise, and it is problematic for two reasons. First is that it impedes upon an area of law that is traditionally reserved for the states, the general police power to regulate conduct within their own borders. And second, it potentially establishes a dangerous precedent in suggesting that mere use of a communication platform like the Internet subjects all users and all activity to the reach of the Federal Government no matter its location or its nature.    So given decades, even centuries of eroding limits on Commerce Clause power, it is incumbent upon Congress to exercise restraint in its application, and I think this could be readily achieved by modifying the language of Restoring America's Wire Act to more closely resemble that in UIGEA, which carefully exempted intrastate payments and those between states with legal gambling. It even went so far as to exempt so-called intermediate routing from qualifying as intrastate, since the path of an electronic signal is incidental to the conduct in question.    There are indeed areas where Congress is properly within its rights to legislate under the Commerce Clause. In my written testimony I refer to several examples of Federal bills that would prevent states from exercising cross-border authority in such a way as to cannibalize interstate commerce, the very problem that led to the downfall of the Articles of Confederation and the drafting of the Constitution.    But there are innumerable instances where the Commerce Clause is cited as granting Federal authority to regulate conduct which is entirely intrastate and even non-commercial in nature. And as written, the Restoring America's Wire Act we think is a problematic use of Commerce Clause power that threatens to substitute the judgment of the Federal Government for that of states, which are the rightful holders of power to regulate intrastate activity.    And so if limited government is to have any meaning in the 21st century and beyond, we believe that Congress must exercise restraint in those claims of power and that in its current form the bill is problematic in that regard.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chaffetz. Thank you.    Ms. Aftab, please, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Aftab</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Aftab. Thank you very much, Mr. Chairman and Ranking Members of both the Judiciary Committee and the Subcommittee here.    I don't have a stake in gambling. I have a stake in protecting people online. The last time I testified before this Subcommittee was several years ago on radicalization of the Internet, and that is when I informed you that terrorists were recruiting our teens online from suburban areas where they were bored. I have testified before Congress on cyber-bullying, child sexual exploitation, child pornography, and child privacy. So my stake in this is to make sure that whatever happens, our kids and consumers are safer.    So, I agree there are lots of problems. There are terrorists who are using online gambling, and there is money laundering going on, and there is malicious code that can be downloaded, but that is not happening in New Jersey, Delaware, or Nevada. It is happening currently with all of the offshore gambling sites, or many of the offshore gambling sites that are not covered by our laws, that we have been frustrated in trying to police over the years.    In this case and the reason it is a little different is once you legalize online gambling with an interstate model, you now have partners in trying to shut down the illegal sites. So the providers who are licensed within a state have a stake in making sure that those who are offshore, those who are not subject to regulation, will follow what they need to do.    I have looked long and hard at these issues, and I have surveyed the regulators in Delaware, New Jersey, and Nevada. We had done a white paper when I testified at the last hearing on online gambling, and we looked at best practices around the world. I picked up the phone and I called the top regulators in each of those states and I said are you keeping kids off? Are you having problems? What is your experience? Is the geolocation working properly? And I got very good responses from them. I was, frankly, a little surprised.    It is not perfect. There were three kids who had gotten on to online gambling in Nevada, two during the test period. They had used their parents' account. One had used his older brother's account. It is a little like when we used to send somebody into a liquor store to buy beer when we were underage, and they would come out and nobody broke the law. I think that we are starting to see some of that here.    We have had a lot of fraud over the years. I have had a lot of senior citizens who called me who had gotten into gambling offshore, and everyone was happy to take their money, but they weren't so happy to give it back.    When we talk about terrorists and money laundering, you need to recognize that in the three states that are handling traditional gaming games--and Nevada is just doing poker and the other two are doing other games in connection with online gambling--they are very careful to make sure that you don't get paid your winnings until the right reports are made to the IRS about those winnings.    Now, I don't know a great deal about financing terrorists and money laundering, but I don't think a lot of them want to sign up with the kind of identity controls that are put into these states and then have to file something with the IRS before the money goes back to an account that has already been authenticated.    So I deal with a lot of issues of online crimes and risks against everyone, and it always comes down to verification and authentication. And the different hoops that people have to jump through to prove that they are in the state, that they have a valid bank account that has been approved under all of the Federal laws that have to, under the Know Your Customer rules on making sure that not just the IP address, which is the old-fashioned way of doing things that has been spoofed over the years, but that you can't even log on with a remote technology that lets you get into your computer when you are home because the technology that is used by the providers in these three states will block anything that is using remote access. It will block anything that is a little off, and it is actually incredibly accurate and is becoming more accurate because everyone has a stake in knowing where you are.    You will see that there was a recent article about Four Square and Twitter wanting to know exactly where you are so they can advertise to you. That is the same technology that is being used to find out where you are. So whether you are using your GPS plus an IP and triangulation, whether it is knowing that you have been trying to get in from other places in the past, we have seen very good compliance and really the state-of-the-art issues on authentication and verification of your location and knowing that you are who you are.    Is it bullet-proof? No. But I think that the lotteries will be able to learn a great deal from the providers that come from more of the commercial gaming, and I think that their best practices will improve.    Thank you.</t>
   </si>
   <si>
@@ -439,9 +409,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. I want to thank the Chairman for allowing everybody to come back.    I appreciate all of y'all, including the spectators, for being back here after 7 o'clock tonight. It just shows that this is important to a lot of people for a lot of reasons.    I will try not to take very long. First, without objection, I am going to introduce the testimony of Michelle Minton, a Consumer Policy Fellow at the Competitive Enterprise Institute, for the record.</t>
   </si>
   <si>
@@ -488,9 +455,6 @@
   </si>
   <si>
     <t>412432</t>
-  </si>
-  <si>
-    <t>Cedric L. Richmond</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Mr. Chairman, and I will make it short.    I have been a bunch of places on this issue, but as of late I have a quick concern, and it has probably been answered. But my question now would be how does this affect my Louisiana lottery, Mega Ball and all of those, which we as a legislature, when I was in the legislature, decided to dedicate those funds to education, to teacher pay? And for a state that is now facing a $1.6 billion budget deficit, to lose any other revenue that is helping pay for a free tuition program for college or for a teacher's education becomes a major concern. So can someone tell me how it affects the Louisiana lottery?</t>
@@ -964,11 +928,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -990,11 +952,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1014,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1042,11 +1000,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1066,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1094,11 +1048,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1118,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1146,11 +1096,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1170,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1196,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1224,11 +1168,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1248,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1276,11 +1216,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1300,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1328,11 +1264,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1352,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1380,11 +1312,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1404,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1432,11 +1360,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1456,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1484,11 +1408,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1508,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1534,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1560,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1586,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1612,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1638,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1664,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1690,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1716,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1742,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1768,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1794,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1820,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1846,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1872,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1898,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1924,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1950,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1976,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2002,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2028,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2054,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2080,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2106,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2132,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2158,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2184,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2210,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2236,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2262,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2288,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2314,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2340,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2366,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2392,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2418,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2444,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2470,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2496,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2522,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2548,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2574,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2600,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2626,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2652,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2678,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2704,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2730,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2756,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2782,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2808,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2834,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2860,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2886,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2912,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2938,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2964,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2990,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3016,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3042,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3070,11 +2872,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3094,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3120,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3146,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3172,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3198,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3226,11 +3016,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3250,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3276,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3302,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3328,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3354,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3380,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3406,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3432,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3460,11 +3232,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3486,11 +3256,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3510,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3538,11 +3304,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3562,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3590,11 +3352,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3614,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3642,11 +3400,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3666,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3694,11 +3448,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3718,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3746,11 +3496,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3770,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3798,11 +3544,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3822,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3850,11 +3592,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3874,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3902,11 +3640,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3926,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3954,11 +3688,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3978,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4006,11 +3736,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4030,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4058,11 +3784,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4082,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4110,11 +3832,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4134,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>140</v>
-      </c>
-      <c r="G124" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4160,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
-      </c>
-      <c r="G125" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4186,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4212,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
-      </c>
-      <c r="G127" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4238,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4264,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>140</v>
-      </c>
-      <c r="G129" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4290,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4316,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>140</v>
-      </c>
-      <c r="G131" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4342,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4368,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
+        <v>130</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
         <v>140</v>
-      </c>
-      <c r="G133" t="s">
-        <v>141</v>
-      </c>
-      <c r="H133" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4394,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4420,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>140</v>
-      </c>
-      <c r="G135" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4446,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4472,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>140</v>
-      </c>
-      <c r="G137" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4498,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4524,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>140</v>
-      </c>
-      <c r="G139" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4550,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>157</v>
-      </c>
-      <c r="G140" t="s">
-        <v>158</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4576,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4602,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4628,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>157</v>
-      </c>
-      <c r="G143" t="s">
-        <v>158</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4654,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4680,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>157</v>
-      </c>
-      <c r="G145" t="s">
-        <v>158</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4706,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4732,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>157</v>
-      </c>
-      <c r="G147" t="s">
-        <v>158</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4758,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4784,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>157</v>
-      </c>
-      <c r="G149" t="s">
-        <v>158</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4810,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4836,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4862,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>157</v>
-      </c>
-      <c r="G152" t="s">
-        <v>158</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4888,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>140</v>
-      </c>
-      <c r="G153" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4914,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4940,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4966,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4992,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>140</v>
-      </c>
-      <c r="G157" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5018,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>140</v>
-      </c>
-      <c r="G158" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5044,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5070,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>140</v>
-      </c>
-      <c r="G160" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5096,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5122,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>140</v>
-      </c>
-      <c r="G162" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5148,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5174,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>140</v>
-      </c>
-      <c r="G164" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93898.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93898.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412270</t>
   </si>
   <si>
+    <t>Chaffetz</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chaffetz. The Committee will come to order. I thank you for being here, appreciate your patience as we have a hearing today on H.R. 707, the ``Restoration of America's Wire Act.'' We appreciate your patience and understanding.    We have critical votes that are on the floor of the House. We will have another set of votes. We do hope to get through opening statements prior to the next set of votes, but we will have to recess again. It is the intention of the Committee to come back into order after this next series of votes.    This is an important issue. It is an important topic. I happen to be the one who had introduced H.R. 707. I know there are various thoughts and perspectives on that.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman, thank you so very much, and thank you for your thoughtfulness in introducing a piece of legislation that will give us the opportunity to review some very important issues.    Let me also thank the Chairman of the Committee, Mr. Sensenbrenner, for calling this very timely hearing.    I want to add my appreciation to all of the witnesses for their patience as we try to do the people's business, and also for your astuteness on this issue, because obviously that is the case that we have called you as witnesses because we want to hear your testimony.    There are 143 million smartphones in operation in America, and at least 75 percent of all U.S. households have computers.    Again, I want to acknowledge, as I see both the Ranking and the Chairman in the Committee of the full Committee. Let me acknowledge our Ranking Member, Mr. Conyers, who is here, and Mr. Goodlatte, the Chairman of the full Committee, who is here as well.    Each of these Internet-connected devices is a potential slot machine or roulette wheel, and every home in America is potentially a casino. That is why it is critical today that we address important issues concerning Internet gaming, including not only statutory interpretation but also questions related to law enforcement and the appeal of online gaming to minors.    Traditional offline gaming revenues in the United States total $35 billion annually. As the Internet continues to offer new possibilities for gaming online, it has been estimated that the American market for online casinos in total could be worth as much as $12 billion per year. Gaming is big business, but we must ensure that our laws governing all forms of gaming reflect a careful weighing of the related costs and benefits.    Illegal gambling has long been a source of revenue for organized crime. In 1961, then-Attorney General Robert F. Kennedy's Justice Department worked with the 87th Congress to enact a series of laws targeting organized crime operations. One of these statutes, the Wire Act, was passed to prohibit the use of interstate telephone and telegraph wagering services which processed bets that provided substantial revenues for criminal organizations.    However, the advent of the Internet in the 1990's allowed greater remote interactions with bettors and expanded the types of games that could be played from a distance. These evolving circumstances led to increased focus on the scope of the prohibitions under the Wire Act.    Prior to 2011, the Department of Justice interpreted the Wire Act to prohibit wagering of any kind over interstate telecommunications. In 2011, the Department reexamined the text and legislative history of the statute and developed its current position, that the law was meant only to apply to bets placed on sporting events. Some fear that this change will lead to the proliferation of non-sports Internet gaming and possible related harms to our citizens, which all of us are concerned about.    Others assert that because Americans already spend an estimated $2.6 billion on illegal offshore gambling websites per year, the better course is to encourage them instead to participate in legal, regulated Internet gaming in the states that allow it. So far Delaware, New Jersey and Nevada have amended their laws to allow either poker or casino-style gaming over the Internet, and several other states allow the online sales of lottery tickets.    We must take seriously the concerns that are raised about the expansion of Internet gaming, including worries that it may facilitate money laundering, prey on those who engage in problem gambling, and allow the participation of minors who would not be able to gamble in a casino. And I would add that all of us, no matter what side of the issue you are on, raise that as a concern.    In fact, the Adolescent Psychiatry Journal's review of studies concerning Internet gambling and children concluded that the potential for future problems among youth is high, especially among a generation of young people who have grown up with video games, computers, and the Internet.    We also must consider the arguments of those who assert that online gaming taking place under state regulation would better prevent those harms than unregulated offshore gaming. For instance, in 2011, former FBI Director Louis Freeh stated that these offshore gaming sites are run by shady operators, often outside the effective reach of U.S. law enforcement, an environment rife with opportunity to defraud players and launder money for much more dangerous operations.    There certainly are different perspectives on these questions, and the Committee will examine all of them as we evaluate H.R. 707, a bill which would provide that the Wire Act prohibits non-sports betting as well as betting on sporting events.    I look forward to the hearing, the insights and opinions of our witnesses concerning each of these issues, and I believe that we have gathered individuals with expertise and balance and a contribution that will help us move forward on a question that the underlying premise should be how do we serve the American public.    With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -70,21 +85,33 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    Internet gambling has been an issue of particular interest to me during my service in Congress. I am personally opposed to Internet gambling because it is used as a mechanism to launder money, because it causes bankruptcy and breaks up families, and because it can even lead to suicide, as it did for a constituent from my district. I have introduced multiple bills dealing with Internet gambling in the past, and I am looking forward to a frank and detailed discussion with our distinguished witnesses, and the Members of this Subcommittee, on the topic.    As the Chairman noted, the OLC opinion reinterpreting the Wire Act caused a dramatic shift in the way the Department of Justice views the laws proscribing Internet gambling. In the three-plus years since the opinion was issued, it has led to an increased push toward the availability of online gambling in this Nation. Many participants in the gambling industry, from Indian tribes to state lottery commissions to casino operators, have been exploring ways to increase their involvement in remote gaming.    In this environment, we must explore ways to protect the rights of states to prevent unwanted Internet gambling from creeping across their borders and into their states. Updating the Wire Act can be a tool to protect states' rights to prohibit gambling activity. However, there is also another states' rights dynamic that we must acknowledge, and that is what to do about states that want to regulate and permit Internet gambling within their own borders. Some states have already legalized online gambling. Thus, any update to the Wire Act will need to address how to handle both the states that have already enacted laws allowing online gambling and any states that would want to do so in the future.    These are tough decisions, and we are having this hearing today to seek answers to these tough decisions.    While I am sympathetic to the argument that states are laboratories of democracy, I am also concerned about whether it is possible to keep this sort of gambling activity from crossing state lines and thus violating the rights of other states.    There is a role for Congress to play in upholding states' rights in this area. Wholly intrastate criminal conduct may nevertheless have an interstate nexus, or be facilitated utilizing an instrumentality of interstate commerce such as a highway, telephone network, or, yes, the Internet. It is therefore within Congress's purview to legislate this conduct. The question for the Members of this Committee, then, is whether Congress should act in this area, and if the approach taken by H.R. 707 is the appropriate way to do so.    I will be interested in our panel's take on that and many other questions. How would a state-by-state regulatory approach to Internet gambling affect the citizens of states who do not want legalized gambling within their borders? In other words, how would you ensure that online gambling, if legal in one state, wouldn't bleed over into a neighboring state where it is not legal, particularly since the Internet doesn't stop at state borders? Is geolocation technology sufficient to determine whether an individual who places a bet is physically present in a state where it is legal? Should all Internet gambling be prohibited? What should be done with states that have already passed laws to permit Internet gambling?    I look forward to discussing all these issues in detail with our witnesses. This is a complex issue and evokes strong opinions on all sides. Should we decide to move forward with legislation to address this issue, we need to do so deliberately and thoughtfully.    I thank the witnesses for their testimony and yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chaffetz. I thank the Chairman.    I will now recognize the Ranking Member of the Judiciary Committee, the former Chairman of the Judiciary Committee, Mr. Conyers, for 5 minutes.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman.    First, I too join in in greeting five witnesses today.    In recent years, I have reviewed the discussion concerning the intended meaning of the Wire Act and have tried to determine the best course for public safety. As a result of legal analysis, I have the following observations which lead me to oppose legislation to amend the Wire Act to prohibit non-state gaming.    Three points. I agree with the position of the Department of Justice based on a 2011 analysis that the Wire Act's prohibitions are limited to sports betting and not to other forms of betting facilitated by wire communications, now including the Internet.    Secondly, while unlawful gaming has long been associated with harms relating to criminal enterprises, banning online gaming is not the answer. That is why the Fraternal Order of Police wrote to myself and Chairman Goodlatte in May of last year in which they said we cannot ban our way out of this problem as this would simply drive online gaming further underground and put more people at risk. Not only does the black market for Internet gaming include no consumer protections, it also operates entirely offshore with unlicensed operators, drastically increasing the threat of identity theft, fraud, and other criminal acts.    And finally, considering the greater risk of harm from offshore gambling, the better option is to allow states, if they choose, to permit online gaming as they see fit, subject to regulation and monitoring, of course.    So that is why the Department of Justice's interpretation of the Wire Act and three states--New Jersey, Nevada, and Delaware--have already permitted online poker or some forms of online casino-style gaming in compliance with the law. Other states, including my own, Michigan, now allow online sales of lottery tickets. States should be allowed to decide this question for themselves, and we should not take any action that would overturn such state laws. But I anxiously await our discussions back and forth today.    I thank the Chairman and yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chaffetz. I thank the gentleman.    I will now recognize myself for 5 minutes.    I obviously am in favor of this bill, having introduced it. I believe it is a states' rights bill, and I think it is important that states have the ability, such as Utah and Hawaii, where we have no gaming, to protect ourselves from something that we would not like to see within our borders.    I personally am opposed to gambling but recognize the right of others and other states, if they so choose, our neighbors, good friends in Nevada if they so choose to have at it. But nevertheless, I do believe that, going back to December 23, 2011, the Wire Act had an interpretation for more than 50 years, and if there is going to be an alteration of such significance to the law, then that should be done through the regular congressional process, not simply a 13-page memo issued by the Office of Legal Counsel within the bowels of the Department of Justice.    Now, there are a number of people on both sides of this issue. It is something that people, as Chairman Goodlatte talked about, are passionate about. I would like to ask unanimous consent to enter into the record 42 different letters that we have received by and large in support of restoring America's Wire Act or are very concerned about the implications of the OLC's opinion.    These include letters from the African American Mayors Association, the Southern Baptist Convention; Senator Mark Warner; the Eagle Forum; the American Family Association; two letters from the Family Research Council; a letter from the Concerned Women for America; a letter from Senator Lindsey Graham, Senator Dianne Feinstein, and Senator Kelly Ayotte; Attorneys General from 16 states that wrote to us that this is a problem; the National Association of Attorneys General. We have letters from Governor Rick Perry, Governor Nikki Haley, Governor Herbert of Utah, Governor Scott, Senator Reid, Senator Kyl, Governor Mike Pence; an op-ed by Governor Rick Perry; another op-ed from Governor Bobby Jindal; another letter from Senator Dianne Feinstein; a USA Today editorial from November 20, 2013; a New York Times editorial from November 25, 2013; a cover story on Newsweek of August 22, 2014; former Representative Spencer Bachus, a Member that was on this Committee; the Department of Justice; and the Federal Bureau of Investigation's Criminal Investigations. There are a host of letters and people who have opined that this is fraught with problems and challenges.*---------------------------------------------------------------------------    *Note: The submitted material is not included in this printed record but is on file with the Subcommittee and can be accessed at:      http://docs.house.gov/Committee/Calendar/      ByEvent.aspx?EventID=103090    But truly, we are here not to hear from the Members of Congress but to hear from our distinguished panel, so let me introduce them briefly. We will swear you in, and then we will start with the testimony from our panel. We do appreciate it. I know some of you have traveled from out of state.</t>
   </si>
   <si>
+    <t>John Kindt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. John Kindt. Did I pronounce that properly?</t>
   </si>
   <si>
+    <t>Kindt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kindt. Yes, sir.</t>
   </si>
   <si>
@@ -97,24 +124,36 @@
     <t xml:space="preserve">    Mr. Chaffetz. Thank you.    Mr. Bernal, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Bernal</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bernal. Hello. My name is Les Bernal, and I am the National Director of Stop Predatory Gambling. Our focus is government-sponsored gambling, whether it is casinos, state lotteries, tribal casinos, or the topic of today's hearing, which is Internet gambling.    Government-sponsored gambling is playing a major role in the rising unfairness and inequality in American life, and it is directly impacting the lives of your constituents in your district.    Up until about 10 years ago, for me, government-sponsored gambling was like the paint on the wall. It was just there. I never questioned it. But when you finally stop to look at it, you can't avoid the obvious evidence that this public policy is contributing to the unfairness and inequality in our country, which has been considered one of the defining issues of our time by leaders from across the political spectrum.    Banning the practice of states sponsoring Internet gambling, which the bill before you would do, is part of the foundation of any serious effort toward reversing this rising inequality in our country.    One important job of the Federal Government is to ensure that every state gives every citizen equal protections under the law. Yet, at this moment in history, state governments across the United States are blatantly, blatantly cheating and exploiting their own citizens, infringing on the rights of millions of Americans through the extreme forms of gambling they sponsor and market to our communities. Many of these state-sponsored games, especially electronic gambling machines, are designed mathematically so users are certain to lose their money the longer they play. At the same time, these games are literally designed so citizens can't stop using them. They are exploiting aspects of human psychology and inducing irrational behavior.    Citizens, your constituents, aren't demanding these extreme forms of gambling. No one is pounding the table for this in your district. In partnership with commercial gambling operators, states are forcing these gambling games onto the public. The most recent poll of New Jersey voters found that 57 percent, 57 percent opposed online gambling, and only 32 percent approved. This is after, after their state government began sponsoring online gambling in 2013.    So if not for the Federal Government, who will step in to protect the rights of individuals, your constituents, against these blatantly dishonest practices that are contributing to inequality and being done by an active predatory state?    People are and should remain free to wager money and to play games of chance for money. But while citizens have every right to engage in a financially damaging activity, the government has no business encouraging them to do it.    In most of your congressional districts, 5 percent of your district, 5 percent of your district, about 35,000 of your constituents have been turned upside-down by gambling, most of which was sponsored by state government. This figure does not account for the reality that each of these citizens has at least one or two people close to them whose lives are also upended because of this public policy.    There is no debate that the financial losses of these individuals, these people being harmed by this public policy, they make up the majority of the revenue taken by state-sponsored casinos and lotteries. Millions of men and women and their families have sacrificed and hurt so much to provide these needed revenues to American government. But no one has ever thanked them for their service. There are no parades with fluttering American flags in the breeze, no yellow ribbons. Our country simply renders these people as failures.    Banning state-sponsored Internet gambling also creates more fairness for the two-thirds of your constituents who almost never use government-sponsored gambling. Because of this public policy, they are paying higher taxes for less services. State-sponsored casinos and lotteries have proven to be a failed source of government revenue, and they haven't delivered on their famous promises to fund education, lower taxes, or to pay for needed public services.    The evidence is clear that state-run gambling operations add to rather than ease long-term budget problems for states. Internet gambling sponsored by government will only make it worse. That is why state-sponsored gambling is the symbol of anti-reform politicians across the United States, regardless of party.    ``No taxation without representation'' was one of America's founding principles. After 40 years of state governments using lotteries and casinos to prey on their own citizens, to extract as much money as possible, the time has come to add the principle of ``no taxation by exploitation'' beneath it.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chaffetz. I thank the gentleman.    Mr. Fagan, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Fagan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fagan. We need to update and restore the Wire Act, and particularly to undo the misinterpretation recently given to it by the Department of Justice's Office of Legal Counsel. The need for a legislative fix I prefer to set out in the written testimony submitted to the Subcommittee. It is not greatly different from the language in H.R. 707 and returns the Act to its proper scope, with a few less exceptions and a bit more First Amendment protection.    Also in my written submission is an analysis of how and why the Office of Legal Counsel's December 2011 strained interpretation of the Wire Act to preclude its application to non-sports gambling communications is wrong substantively and was achieved via a closed legislation-by-fiat process neither democratic nor sensible given the change it portends for daily life in the United States.    Indeed, the 50-year understanding that the Wire Act applies to both sports and non-sports wagering interstate communication was the understanding that even the gambling industry had during that largely pre-Internet period, as industry behavior shows. So when the Office of Legal Counsel's 2011 reinterpretation of the Act became public, many wondered whether the opinion was either careless or corrupt.    No matter. For present purposes, as a result, it was wrong both as a matter of law and as a matter of policy. A restored, repaired Wire Act will help states enforce their gambling laws whether the state prohibits or authorizes intrastate gambling activities. This kind of help is just as needed today as in 1961.    Organized crime, both traditional and non-traditional, and now increasingly transnational, has long exploited and continues to exploit the evasive opportunities presented by conducting cross-border gambling operations. By unwisely cutting in half the utility of the Wire Act as a tool in the prosecutor's toolbox, the Office of Legal Counsel opened a window for organized crime and others intent on impoverishing Americans through illicit, commercially operated gambling enterprises, whether via the numbers racket, lotteries, bolita virtual card games, slots, or any of the myriad creative ways con men and sharp operators use non-sports gambling to generate revenue from gangs designed to exploit and even addict.    The money laundering utility of gambling enterprises, long known but hard to investigate in brick-and-mortar settings, becomes all the more difficult to defeat when Internet-based gambling moves funds and obfuscates records at the speed of light. Of even more serious concern, law enforcement and intelligence analysts have seen online gambling sites, sites which by their nature are interstate and international in scope, being used as terrorist financing vehicles, places to clandestinely store and transmit funds.    Terrorism-related convictions in the United Kingdom of Tariq ad Daour and two associates who used Internet gambling to facilitate terrorism conduct and planning a few years ago only hint at the dozens of classified and non-classified investigations that U.S., U.K., and Canadian authorities have made under the exploitation of gambling websites to finance terrorism.    More recently, terrorists in Afghanistan have been using illegal gambling sites to move their money as well, reports Janes Advisory Services. It is no wonder that the Federal Criminal Investigators Association supports legislation to return the Wire Act to its original scope and opposes any carve-out that would weaken its protections and further enable criminal and terrorist activity. Without a restored Wire Act, there is not adequate legal framework for law enforcement to shut down substantial illegal interstate gambling activities.    Relatedly, the present inability to use the Wire Act in cases of non-sports gambling further denies millions of Americans the efficient recourse of sentencing-based restitution when they become victims of fraud or other gambling-based criminal conduct conducted by illegal cross-border enterprises.    Those who dream that it's possible to regulate and tax this supposedly well-monitored interstate system of online gambling are just that, dreamers. I can tell you with the certainty of a person who has been there, done that, that there is no way the Federal Government or any individual or combination of state governments can expand to the degree necessary to effectively police and regulate the scale of Internet gambling, multiple millions of transactions involving billions of lines of code in malleable, disguisable formats with anonymizing and proxy tools readily available with easily disguised traditional and evolving collusive behaviors. For example, Meerkat-type video streaming over Twitter service will always give collusion teams a leg up.    Remote access and control of computers in a jurisdiction where intrastate gambling is allowed will defeat geolocation and geo-fencing, and it is fairly trivial to leverage the Tor network to obfuscate the original IP address of a client, whether it is a laptop, a phone, a tablet, et cetera.    All this means no police force or regulatory body will be big enough, trained enough, or funded enough to keep criminals and terrorists from using institutionalized online interstate gambling to their advantage.    I see my time has run out.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chaffetz. Thank you.    Mr. Moylan, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Moylan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moylan. Thank you, Mr. Chairman and Madam Ranking Member, Members of the Subcommittee, for the invitation to testify today.    My name is Andrew Moylan. I am Executive Director and Senior Fellow of the R Street Institute. We are a pragmatic, non-profit, non-partisan think tank that strives for free markets and limited, effective government, and it is in pursuit of those goals that I testify before you today regarding concerns that we have about H.R. 707, the ``Restoring America's Wire Act,'' and what questions it raises about the appropriate scope of Federal law.    My testimony today is focused not on the propriety of gambling per se, as is some of the other witnesses, but instead on articulating a conception of limited government and Federalism as it relates to gambling legislation. In such a Federalist system, states carry most of the responsibility to exercise powers that are rightfully theirs under the Constitution, and Federal power is appropriately constrained to genuinely national or interstate matters.    So while my conservative and Libertarian brethren hold a wide range of views on the social implications of gambling, we share a broad consensus that the Federal Government is too large and too powerful, in no small part due to a decades-long trend of ever-expanding assertions of power by Congress and a compliant Judiciary that has validated most of those assertions, and it is this troubling trend rather than the activity of gambling itself which motivates my comments today.    Much of my professional work has been devoted to protecting limited government in the Internet age, including matters on which I have previously testified to the Judiciary Committee, like Internet sales tax law.    The Internet is indeed unlimited in its scope, but government power, even in this modern age, ought to be limited and respectful of borders, both the tangible geographic borders that delineate one sovereign state from the next, and the conceptual borders that delineate truly national interstate issues from state and local ones, and it is in that vein that I note potential concerns with the bill before you today.    While ostensibly expanding the 1961 Wire Act such that it covers all forms of gambling, as opposed to just sports betting, and specifying the inclusion of Internet transmission as prohibited, it appears also to go a step further than that; and also in the plain language of the Wire Act itself and the closely related Unlawful Internet Gambling Enforcement Act, or UIGEA. Specifically, its prohibition on all wire or Internet gambling transmissions, including those conducted over the Internet, in states that may have chosen to license and regulate gambling, is at odds with the basic principles of Federalism and the more narrowly targeted language of the original Wire Act and UIGEA.    While there are valid policy-based criticisms of each, both the Wire Act and UIGEA were written to help states in their own law enforcement pursuits and more carefully circumscribed to cover only genuinely international or interstate activity, and they did this by effectively exempting intrastate gambling and transmissions between entities and states where that behavior was legal.    By appearing to extend to wholly intrastate conduct, the Restoring America's Wire Act may well empower the Federal Government in a way that we think is unwise, and it is problematic for two reasons. First is that it impedes upon an area of law that is traditionally reserved for the states, the general police power to regulate conduct within their own borders. And second, it potentially establishes a dangerous precedent in suggesting that mere use of a communication platform like the Internet subjects all users and all activity to the reach of the Federal Government no matter its location or its nature.    So given decades, even centuries of eroding limits on Commerce Clause power, it is incumbent upon Congress to exercise restraint in its application, and I think this could be readily achieved by modifying the language of Restoring America's Wire Act to more closely resemble that in UIGEA, which carefully exempted intrastate payments and those between states with legal gambling. It even went so far as to exempt so-called intermediate routing from qualifying as intrastate, since the path of an electronic signal is incidental to the conduct in question.    There are indeed areas where Congress is properly within its rights to legislate under the Commerce Clause. In my written testimony I refer to several examples of Federal bills that would prevent states from exercising cross-border authority in such a way as to cannibalize interstate commerce, the very problem that led to the downfall of the Articles of Confederation and the drafting of the Constitution.    But there are innumerable instances where the Commerce Clause is cited as granting Federal authority to regulate conduct which is entirely intrastate and even non-commercial in nature. And as written, the Restoring America's Wire Act we think is a problematic use of Commerce Clause power that threatens to substitute the judgment of the Federal Government for that of states, which are the rightful holders of power to regulate intrastate activity.    And so if limited government is to have any meaning in the 21st century and beyond, we believe that Congress must exercise restraint in those claims of power and that in its current form the bill is problematic in that regard.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chaffetz. Thank you.    Ms. Aftab, please, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Aftab</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Aftab. Thank you very much, Mr. Chairman and Ranking Members of both the Judiciary Committee and the Subcommittee here.    I don't have a stake in gambling. I have a stake in protecting people online. The last time I testified before this Subcommittee was several years ago on radicalization of the Internet, and that is when I informed you that terrorists were recruiting our teens online from suburban areas where they were bored. I have testified before Congress on cyber-bullying, child sexual exploitation, child pornography, and child privacy. So my stake in this is to make sure that whatever happens, our kids and consumers are safer.    So, I agree there are lots of problems. There are terrorists who are using online gambling, and there is money laundering going on, and there is malicious code that can be downloaded, but that is not happening in New Jersey, Delaware, or Nevada. It is happening currently with all of the offshore gambling sites, or many of the offshore gambling sites that are not covered by our laws, that we have been frustrated in trying to police over the years.    In this case and the reason it is a little different is once you legalize online gambling with an interstate model, you now have partners in trying to shut down the illegal sites. So the providers who are licensed within a state have a stake in making sure that those who are offshore, those who are not subject to regulation, will follow what they need to do.    I have looked long and hard at these issues, and I have surveyed the regulators in Delaware, New Jersey, and Nevada. We had done a white paper when I testified at the last hearing on online gambling, and we looked at best practices around the world. I picked up the phone and I called the top regulators in each of those states and I said are you keeping kids off? Are you having problems? What is your experience? Is the geolocation working properly? And I got very good responses from them. I was, frankly, a little surprised.    It is not perfect. There were three kids who had gotten on to online gambling in Nevada, two during the test period. They had used their parents' account. One had used his older brother's account. It is a little like when we used to send somebody into a liquor store to buy beer when we were underage, and they would come out and nobody broke the law. I think that we are starting to see some of that here.    We have had a lot of fraud over the years. I have had a lot of senior citizens who called me who had gotten into gambling offshore, and everyone was happy to take their money, but they weren't so happy to give it back.    When we talk about terrorists and money laundering, you need to recognize that in the three states that are handling traditional gaming games--and Nevada is just doing poker and the other two are doing other games in connection with online gambling--they are very careful to make sure that you don't get paid your winnings until the right reports are made to the IRS about those winnings.    Now, I don't know a great deal about financing terrorists and money laundering, but I don't think a lot of them want to sign up with the kind of identity controls that are put into these states and then have to file something with the IRS before the money goes back to an account that has already been authenticated.    So I deal with a lot of issues of online crimes and risks against everyone, and it always comes down to verification and authentication. And the different hoops that people have to jump through to prove that they are in the state, that they have a valid bank account that has been approved under all of the Federal laws that have to, under the Know Your Customer rules on making sure that not just the IP address, which is the old-fashioned way of doing things that has been spoofed over the years, but that you can't even log on with a remote technology that lets you get into your computer when you are home because the technology that is used by the providers in these three states will block anything that is using remote access. It will block anything that is a little off, and it is actually incredibly accurate and is becoming more accurate because everyone has a stake in knowing where you are.    You will see that there was a recent article about Four Square and Twitter wanting to know exactly where you are so they can advertise to you. That is the same technology that is being used to find out where you are. So whether you are using your GPS plus an IP and triangulation, whether it is knowing that you have been trying to get in from other places in the past, we have seen very good compliance and really the state-of-the-art issues on authentication and verification of your location and knowing that you are who you are.    Is it bullet-proof? No. But I think that the lotteries will be able to learn a great deal from the providers that come from more of the commercial gaming, and I think that their best practices will improve.    Thank you.</t>
   </si>
   <si>
@@ -409,6 +448,12 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. I want to thank the Chairman for allowing everybody to come back.    I appreciate all of y'all, including the spectators, for being back here after 7 o'clock tonight. It just shows that this is important to a lot of people for a lot of reasons.    I will try not to take very long. First, without objection, I am going to introduce the testimony of Michelle Minton, a Consumer Policy Fellow at the Competitive Enterprise Institute, for the record.</t>
   </si>
   <si>
@@ -455,6 +500,12 @@
   </si>
   <si>
     <t>412432</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Cedric</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Mr. Chairman, and I will make it short.    I have been a bunch of places on this issue, but as of late I have a quick concern, and it has probably been answered. But my question now would be how does this affect my Louisiana lottery, Mega Ball and all of those, which we as a legislature, when I was in the legislature, decided to dedicate those funds to education, to teacher pay? And for a state that is now facing a $1.6 billion budget deficit, to lose any other revenue that is helping pay for a free tuition program for college or for a teacher's education becomes a major concern. So can someone tell me how it affects the Louisiana lottery?</t>
@@ -878,7 +929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,7 +937,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,3917 +959,4533 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
       <c r="H84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
       <c r="H86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
       <c r="H88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
       <c r="H90" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
       <c r="H91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
       <c r="H93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
       <c r="H95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
       <c r="H97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>42</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s">
+        <v>42</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G116" t="s">
+        <v>45</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G118" t="s">
+        <v>45</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G120" t="s">
+        <v>45</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G122" t="s">
+        <v>45</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>130</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G124" t="s">
+        <v>144</v>
+      </c>
       <c r="H124" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I124" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>130</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G125" t="s">
+        <v>144</v>
+      </c>
       <c r="H125" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I125" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G126" t="s">
+        <v>42</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>130</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G127" t="s">
+        <v>144</v>
+      </c>
       <c r="H127" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I127" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>130</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G129" t="s">
+        <v>144</v>
+      </c>
       <c r="H129" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>130</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G131" t="s">
+        <v>144</v>
+      </c>
       <c r="H131" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I131" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>42</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>130</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G133" t="s">
+        <v>144</v>
+      </c>
       <c r="H133" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I133" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>42</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>130</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G135" t="s">
+        <v>144</v>
+      </c>
       <c r="H135" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>18</v>
+      </c>
       <c r="H136" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>130</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G137" t="s">
+        <v>144</v>
+      </c>
       <c r="H137" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I137" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G138" t="s">
+        <v>18</v>
+      </c>
       <c r="H138" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>130</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G139" t="s">
+        <v>144</v>
+      </c>
       <c r="H139" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G140" t="s">
+        <v>162</v>
+      </c>
       <c r="H140" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I140" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>146</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G143" t="s">
+        <v>162</v>
+      </c>
       <c r="H143" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>36</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G145" t="s">
+        <v>162</v>
+      </c>
       <c r="H145" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
+        <v>36</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>146</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G147" t="s">
+        <v>162</v>
+      </c>
       <c r="H147" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I147" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>146</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G149" t="s">
+        <v>162</v>
+      </c>
       <c r="H149" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I149" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s">
+        <v>36</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>146</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G152" t="s">
+        <v>162</v>
+      </c>
       <c r="H152" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I152" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>130</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G153" t="s">
+        <v>144</v>
+      </c>
       <c r="H153" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I153" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>18</v>
+      </c>
       <c r="H154" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s">
+        <v>45</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G156" t="s">
+        <v>18</v>
+      </c>
       <c r="H156" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>130</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G157" t="s">
+        <v>144</v>
+      </c>
       <c r="H157" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I157" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>130</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G158" t="s">
+        <v>144</v>
+      </c>
       <c r="H158" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I158" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s">
+        <v>18</v>
+      </c>
       <c r="H159" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>130</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G160" t="s">
+        <v>144</v>
+      </c>
       <c r="H160" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I160" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G161" t="s">
+        <v>45</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>130</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G162" t="s">
+        <v>144</v>
+      </c>
       <c r="H162" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I162" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G163" t="s">
+        <v>45</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>130</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G164" t="s">
+        <v>144</v>
+      </c>
       <c r="H164" t="s">
-        <v>171</v>
+        <v>145</v>
+      </c>
+      <c r="I164" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93898.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93898.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412270</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Chaffetz</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t>400199</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Jackson Lee</t>
@@ -929,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,7 +946,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,4530 +971,4820 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>42</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>39</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>42</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>48</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>45</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>45</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>45</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>42</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>45</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>48</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>48</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>36</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>39</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>42</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>39</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>42</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>42</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>45</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>45</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>45</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>42</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>45</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>45</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>48</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s">
-        <v>45</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>48</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>45</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>48</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>45</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>48</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G124" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I124" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J124" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G125" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J125" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>42</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>45</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G127" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I127" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J127" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>42</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>45</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G129" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>42</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G131" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>42</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>45</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G133" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I133" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>42</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>45</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G135" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J135" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G137" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I137" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J137" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I138" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J138" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G139" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G140" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>31</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>34</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>45</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>48</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G143" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>36</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>39</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G145" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>36</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>39</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G147" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J147" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" t="s">
-        <v>36</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>39</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G149" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J149" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" t="s">
-        <v>36</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>39</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>31</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G152" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J152" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G153" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J153" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H154" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
-        <v>45</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>48</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G156" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I156" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J156" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G157" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I157" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J157" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G158" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I158" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G159" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I159" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J159" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G160" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I160" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s">
-        <v>45</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>48</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G162" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I162" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J162" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" t="s">
-        <v>45</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>48</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G164" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I164" t="s">
-        <v>188</v>
+        <v>148</v>
+      </c>
+      <c r="J164" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
